--- a/TI/metricas.xlsx
+++ b/TI/metricas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhona\Desktop\SPTech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kauan\Desktop\Arquivos\KAUAN\SPTECH\PI\Projeto-ShopFlux\TI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81492D13-262B-4B03-A667-62BEECBF1C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A5B807-7318-4CF4-9ECE-7D9C63887FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,22 +62,22 @@
     <t>Horário comercial</t>
   </si>
   <si>
-    <t>Crítico</t>
-  </si>
-  <si>
-    <t>Bom</t>
-  </si>
-  <si>
     <t>Baixo</t>
   </si>
   <si>
-    <t>Médio</t>
-  </si>
-  <si>
     <t>Alto</t>
   </si>
   <si>
     <t>Fluxo</t>
+  </si>
+  <si>
+    <t>Muito Alto</t>
+  </si>
+  <si>
+    <t>Muito Baixo</t>
+  </si>
+  <si>
+    <t>Normal</t>
   </si>
 </sst>
 </file>
@@ -87,7 +87,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +95,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +141,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -161,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -193,15 +213,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -216,6 +227,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,13 +706,16 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -703,14 +729,14 @@
         <v>7</v>
       </c>
       <c r="D1" s="8"/>
-      <c r="E1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="E1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -719,25 +745,25 @@
       <c r="B2" s="10">
         <v>0</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="14">
         <v>0</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -747,31 +773,31 @@
       <c r="B3" s="10">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="14">
         <v>30000</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="16">
+      <c r="E3" s="13">
         <f>MIN(C2:C14)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="13">
         <f>_xlfn.QUARTILE.EXC(C2:C10,1)</f>
         <v>16500</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="13">
         <f>AVERAGE(C2:C10)</f>
         <v>19333.333333333332</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="13">
         <f>MEDIAN(C2:C14)</f>
         <v>20000</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="13">
         <f>_xlfn.QUARTILE.EXC(C2:C10,3)</f>
         <v>26500</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="13">
         <f>MAX(C2:C10)</f>
         <v>30000</v>
       </c>
@@ -783,7 +809,7 @@
       <c r="B4" s="10">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="14">
         <v>20000</v>
       </c>
       <c r="D4" s="8"/>
@@ -801,7 +827,7 @@
       <c r="B5" s="10">
         <v>0.125</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="14">
         <v>17000</v>
       </c>
       <c r="D5" s="8"/>
@@ -819,13 +845,13 @@
       <c r="B6" s="10">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="14">
         <v>30000</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -837,7 +863,7 @@
       <c r="B7" s="10">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="14">
         <v>20000</v>
       </c>
       <c r="D7" s="8"/>
@@ -855,7 +881,7 @@
       <c r="B8" s="10">
         <v>0.25</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="14">
         <v>16000</v>
       </c>
       <c r="D8" s="8"/>
@@ -873,7 +899,7 @@
       <c r="B9" s="10">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="14">
         <v>23000</v>
       </c>
       <c r="D9" s="8"/>
@@ -891,7 +917,7 @@
       <c r="B10" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="14">
         <v>18000</v>
       </c>
       <c r="D10" s="8"/>
@@ -909,7 +935,7 @@
       <c r="B11" s="10">
         <v>0.375</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="14">
         <v>50000</v>
       </c>
       <c r="D11" s="8"/>
@@ -927,7 +953,7 @@
       <c r="B12" s="10">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="14">
         <v>20000</v>
       </c>
       <c r="D12" s="8"/>
@@ -945,7 +971,7 @@
       <c r="B13" s="10">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="14">
         <v>12000</v>
       </c>
       <c r="D13" s="8"/>
@@ -963,7 +989,7 @@
       <c r="B14" s="10">
         <v>0.5</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="14">
         <v>20000</v>
       </c>
       <c r="D14" s="1"/>
@@ -1012,5 +1038,6 @@
     <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>